--- a/Paolo/Scripts/Fechas/Fecha_2022b.xlsx
+++ b/Paolo/Scripts/Fechas/Fecha_2022b.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUEVO D\LOCACION OEFA\Busqueda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUEVO D\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Scripts\Fechas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$C$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -531,7 +531,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
